--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd14</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H2">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I2">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J2">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>15.89013007567281</v>
+        <v>0.2238444859463334</v>
       </c>
       <c r="R2">
-        <v>15.89013007567281</v>
+        <v>2.014600373517</v>
       </c>
       <c r="S2">
-        <v>0.0004932317673490943</v>
+        <v>5.614124998553136E-06</v>
       </c>
       <c r="T2">
-        <v>0.0004932317673490943</v>
+        <v>5.660104739326941E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H3">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I3">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J3">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>21.03168171355365</v>
+        <v>40.997892154761</v>
       </c>
       <c r="R3">
-        <v>21.03168171355365</v>
+        <v>368.981029392849</v>
       </c>
       <c r="S3">
-        <v>0.0006528262193259902</v>
+        <v>0.001028246419655885</v>
       </c>
       <c r="T3">
-        <v>0.0006528262193259902</v>
+        <v>0.001036667768279144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.336840755836078</v>
+        <v>0.608137</v>
       </c>
       <c r="H4">
-        <v>0.336840755836078</v>
+        <v>1.824411</v>
       </c>
       <c r="I4">
-        <v>0.001177448968051668</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J4">
-        <v>0.001177448968051668</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>1.011303022832066</v>
+        <v>38.18482148197034</v>
       </c>
       <c r="R4">
-        <v>1.011303022832066</v>
+        <v>343.663393337733</v>
       </c>
       <c r="S4">
-        <v>3.139098137658394E-05</v>
+        <v>0.000957693283982053</v>
       </c>
       <c r="T4">
-        <v>3.139098137658394E-05</v>
+        <v>0.0009655368017073722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.661967534245603</v>
+        <v>0.608137</v>
       </c>
       <c r="H5">
-        <v>0.661967534245603</v>
+        <v>1.824411</v>
       </c>
       <c r="I5">
-        <v>0.002313950959249421</v>
+        <v>0.002038596856568862</v>
       </c>
       <c r="J5">
-        <v>0.002313950959249421</v>
+        <v>0.002039483548598551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>31.22766483208443</v>
+        <v>1.875683638607</v>
       </c>
       <c r="R5">
-        <v>31.22766483208443</v>
+        <v>11.254101831642</v>
       </c>
       <c r="S5">
-        <v>0.000969310901922368</v>
+        <v>4.704302793237134E-05</v>
       </c>
       <c r="T5">
-        <v>0.000969310901922368</v>
+        <v>3.161887387270823E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.661967534245603</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H6">
-        <v>0.661967534245603</v>
+        <v>2.115531</v>
       </c>
       <c r="I6">
-        <v>0.002313950959249421</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J6">
-        <v>0.002313950959249421</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>41.33196545769142</v>
+        <v>0.259563195573</v>
       </c>
       <c r="R6">
-        <v>41.33196545769142</v>
+        <v>2.336068760157</v>
       </c>
       <c r="S6">
-        <v>0.001282949747649921</v>
+        <v>6.509967037204946E-06</v>
       </c>
       <c r="T6">
-        <v>0.001282949747649921</v>
+        <v>6.563283733376449E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.661967534245603</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H7">
-        <v>0.661967534245603</v>
+        <v>2.115531</v>
       </c>
       <c r="I7">
-        <v>0.002313950959249421</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J7">
-        <v>0.002313950959249421</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>1.987436961829679</v>
+        <v>47.539897417881</v>
       </c>
       <c r="R7">
-        <v>1.987436961829679</v>
+        <v>427.8590767609289</v>
       </c>
       <c r="S7">
-        <v>6.169030967713215E-05</v>
+        <v>0.001192322988855599</v>
       </c>
       <c r="T7">
-        <v>6.169030967713215E-05</v>
+        <v>0.00120208812624751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>102.871802383352</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H8">
-        <v>102.871802383352</v>
+        <v>2.115531</v>
       </c>
       <c r="I8">
-        <v>0.3595951364532579</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J8">
-        <v>0.3595951364532579</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>4852.87570660204</v>
+        <v>44.277947005677</v>
       </c>
       <c r="R8">
-        <v>4852.87570660204</v>
+        <v>398.501523051093</v>
       </c>
       <c r="S8">
-        <v>0.15063391237793</v>
+        <v>0.001110511738175135</v>
       </c>
       <c r="T8">
-        <v>0.15063391237793</v>
+        <v>0.001119606840592826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>102.871802383352</v>
+        <v>0.7051769999999999</v>
       </c>
       <c r="H9">
-        <v>102.871802383352</v>
+        <v>2.115531</v>
       </c>
       <c r="I9">
-        <v>0.3595951364532579</v>
+        <v>0.002363894345393654</v>
       </c>
       <c r="J9">
-        <v>0.3595951364532579</v>
+        <v>0.002364922526256552</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>6423.115277888577</v>
+        <v>2.174985178047</v>
       </c>
       <c r="R9">
-        <v>6423.115277888577</v>
+        <v>13.049911068282</v>
       </c>
       <c r="S9">
-        <v>0.1993743591344271</v>
+        <v>5.454965132571415E-05</v>
       </c>
       <c r="T9">
-        <v>0.1993743591344271</v>
+        <v>3.666427568283917E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>102.871802383352</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H10">
-        <v>102.871802383352</v>
+        <v>338.642536</v>
       </c>
       <c r="I10">
-        <v>0.3595951364532579</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J10">
-        <v>0.3595951364532579</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>308.8538512990833</v>
+        <v>41.54944493893244</v>
       </c>
       <c r="R10">
-        <v>308.8538512990833</v>
+        <v>373.9450044503919</v>
       </c>
       <c r="S10">
-        <v>0.009586864940900809</v>
+        <v>0.001042079622919961</v>
       </c>
       <c r="T10">
-        <v>0.009586864940900809</v>
+        <v>0.00105061426561849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>182.206123839698</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H11">
-        <v>182.206123839698</v>
+        <v>338.642536</v>
       </c>
       <c r="I11">
-        <v>0.6369134636194411</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J11">
-        <v>0.6369134636194411</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>8595.393990286391</v>
+        <v>7609.924611254135</v>
       </c>
       <c r="R11">
-        <v>8595.393990286391</v>
+        <v>68489.32150128721</v>
       </c>
       <c r="S11">
-        <v>0.26680218152407</v>
+        <v>0.1908604887742888</v>
       </c>
       <c r="T11">
-        <v>0.26680218152407</v>
+        <v>0.1924236381163617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>182.206123839698</v>
+        <v>112.8808453333333</v>
       </c>
       <c r="H12">
-        <v>182.206123839698</v>
+        <v>338.642536</v>
       </c>
       <c r="I12">
-        <v>0.6369134636194411</v>
+        <v>0.378399170685831</v>
       </c>
       <c r="J12">
-        <v>0.6369134636194411</v>
+        <v>0.3785637562082736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>11376.59602189511</v>
+        <v>7087.769577886623</v>
       </c>
       <c r="R12">
-        <v>11376.59602189511</v>
+        <v>63789.9262009796</v>
       </c>
       <c r="S12">
-        <v>0.3531310653577775</v>
+        <v>0.1777645949283635</v>
       </c>
       <c r="T12">
-        <v>0.3531310653577775</v>
+        <v>0.179220488766793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>112.8808453333333</v>
+      </c>
+      <c r="H13">
+        <v>338.642536</v>
+      </c>
+      <c r="I13">
+        <v>0.378399170685831</v>
+      </c>
+      <c r="J13">
+        <v>0.3785637562082736</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.084311</v>
+      </c>
+      <c r="N13">
+        <v>6.168622</v>
+      </c>
+      <c r="O13">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P13">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q13">
+        <v>348.1596329508986</v>
+      </c>
+      <c r="R13">
+        <v>2088.957797705392</v>
+      </c>
+      <c r="S13">
+        <v>0.008732007360258771</v>
+      </c>
+      <c r="T13">
+        <v>0.005869015059500328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>183.728312</v>
+      </c>
+      <c r="H14">
+        <v>551.184936</v>
+      </c>
+      <c r="I14">
+        <v>0.6158940490479994</v>
+      </c>
+      <c r="J14">
+        <v>0.6161619334718688</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.104247</v>
+      </c>
+      <c r="O14">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P14">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q14">
+        <v>67.62714578035467</v>
+      </c>
+      <c r="R14">
+        <v>608.644312023192</v>
+      </c>
+      <c r="S14">
+        <v>0.001696120626341055</v>
+      </c>
+      <c r="T14">
+        <v>0.001710011871502209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>183.728312</v>
+      </c>
+      <c r="H15">
+        <v>551.184936</v>
+      </c>
+      <c r="I15">
+        <v>0.6158940490479994</v>
+      </c>
+      <c r="J15">
+        <v>0.6161619334718688</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>67.415553</v>
+      </c>
+      <c r="N15">
+        <v>202.246659</v>
+      </c>
+      <c r="O15">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P15">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q15">
+        <v>12386.14575523654</v>
+      </c>
+      <c r="R15">
+        <v>111475.3117971288</v>
+      </c>
+      <c r="S15">
+        <v>0.3106503616839944</v>
+      </c>
+      <c r="T15">
+        <v>0.3131945913021807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>183.728312</v>
+      </c>
+      <c r="H16">
+        <v>551.184936</v>
+      </c>
+      <c r="I16">
+        <v>0.6158940490479994</v>
+      </c>
+      <c r="J16">
+        <v>0.6161619334718688</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>11536.27027282298</v>
+      </c>
+      <c r="R16">
+        <v>103826.4324554068</v>
+      </c>
+      <c r="S16">
+        <v>0.2893350848242406</v>
+      </c>
+      <c r="T16">
+        <v>0.291704742108397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>182.206123839698</v>
-      </c>
-      <c r="H13">
-        <v>182.206123839698</v>
-      </c>
-      <c r="I13">
-        <v>0.6369134636194411</v>
-      </c>
-      <c r="J13">
-        <v>0.6369134636194411</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q13">
-        <v>547.0407028396303</v>
-      </c>
-      <c r="R13">
-        <v>547.0407028396303</v>
-      </c>
-      <c r="S13">
-        <v>0.01698021673759377</v>
-      </c>
-      <c r="T13">
-        <v>0.01698021673759377</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>183.728312</v>
+      </c>
+      <c r="H17">
+        <v>551.184936</v>
+      </c>
+      <c r="I17">
+        <v>0.6158940490479994</v>
+      </c>
+      <c r="J17">
+        <v>0.6161619334718688</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>566.675253713032</v>
+      </c>
+      <c r="R17">
+        <v>3400.051522278192</v>
+      </c>
+      <c r="S17">
+        <v>0.01421248191342319</v>
+      </c>
+      <c r="T17">
+        <v>0.00955258818978879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.3890845</v>
+      </c>
+      <c r="H18">
+        <v>0.778169</v>
+      </c>
+      <c r="I18">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J18">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>0.1432151306238333</v>
+      </c>
+      <c r="R18">
+        <v>0.8592907837429999</v>
+      </c>
+      <c r="S18">
+        <v>3.591902840970945E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.414213707819842E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.3890845</v>
+      </c>
+      <c r="H19">
+        <v>0.778169</v>
+      </c>
+      <c r="I19">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J19">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>26.2303467312285</v>
+      </c>
+      <c r="R19">
+        <v>157.382080387371</v>
+      </c>
+      <c r="S19">
+        <v>0.0006578694341383604</v>
+      </c>
+      <c r="T19">
+        <v>0.0004421715943249701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.3890845</v>
+      </c>
+      <c r="H20">
+        <v>0.778169</v>
+      </c>
+      <c r="I20">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J20">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>24.43055129666784</v>
+      </c>
+      <c r="R20">
+        <v>146.583307780007</v>
+      </c>
+      <c r="S20">
+        <v>0.0006127297180594424</v>
+      </c>
+      <c r="T20">
+        <v>0.0004118319871168416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.3890845</v>
+      </c>
+      <c r="H21">
+        <v>0.778169</v>
+      </c>
+      <c r="I21">
+        <v>0.001304289064207025</v>
+      </c>
+      <c r="J21">
+        <v>0.0008699042450025713</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>1.2000576032795</v>
+      </c>
+      <c r="R21">
+        <v>4.800230413118</v>
+      </c>
+      <c r="S21">
+        <v>3.009800916825113E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.348644985293965E-05</v>
       </c>
     </row>
   </sheetData>
